--- a/tables/table_sensitivity_short.xlsx
+++ b/tables/table_sensitivity_short.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24302"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24312"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{213AE771-5ED4-4DEC-AD16-5DC9829D2A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB30BC6A-665F-47E7-BC48-9BE87595DF7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>B (mT)</t>
+  </si>
   <si>
     <t>sensitivity (nT/Hz1/2)</t>
   </si>
@@ -41,19 +44,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -175,44 +171,44 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -555,89 +551,91 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection sqref="A1:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
     <col min="3" max="3" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36" customHeight="1">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A2" s="11">
+      <c r="A2" s="12">
         <v>0</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>1.81007285952497</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>4.5328310854990004E-3</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A3" s="12">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6">
+      <c r="A3" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="B3" s="5">
         <v>1.7775506336495699</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>4.0152308257029997E-3</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A4" s="12">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6">
+      <c r="A4" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="B4" s="5">
         <v>1.7986240883868101</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>5.3284355330929997E-3</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A5" s="12">
-        <v>5</v>
-      </c>
-      <c r="B5" s="6">
+      <c r="A5" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="B5" s="5">
         <v>1.8019467618823899</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>4.4146886095769999E-3</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A6" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="8">
+      <c r="A6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="7">
         <v>1.79704858586093</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>4.4098479458350003E-3</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
